--- a/NFL/nfl_project_plan.xlsx
+++ b/NFL/nfl_project_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikef\Documents\GitHub\Projects\NFL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73D0089D-9F9A-4B59-9418-501C8B6AF4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A7943-743B-4D3B-8CF6-87CB4D1147D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{074C96CD-8111-4C88-8FB9-70B11F48DBB5}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,18 +461,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.2000000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.2999999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>3.1</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>3.2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
